--- a/Code/oppp-results.xlsx
+++ b/Code/oppp-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,21 @@
           <t>Darwinian phi rate-exponential/t</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated insertion-phi rate/# EV</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated insertion-phi rate/FO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated insertion-phi rate/t</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -505,6 +520,15 @@
       <c r="I2" t="n">
         <v>0.55</v>
       </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>446.26</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -536,6 +560,15 @@
       <c r="I3" t="n">
         <v>0.53</v>
       </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>250.04</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -566,6 +599,15 @@
       </c>
       <c r="I4" t="n">
         <v>501.19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2080.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35.34</v>
       </c>
     </row>
     <row r="5">
@@ -598,6 +640,15 @@
       <c r="I5" t="n">
         <v>455.89</v>
       </c>
+      <c r="J5" t="n">
+        <v>19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2079.37</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59.23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -629,6 +680,15 @@
       <c r="I6" t="n">
         <v>48.16</v>
       </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>453.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,6 +720,15 @@
       <c r="I7" t="n">
         <v>0.42</v>
       </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>185.01</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -691,6 +760,15 @@
       <c r="I8" t="n">
         <v>318.12</v>
       </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1815.68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>54.52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -722,6 +800,15 @@
       <c r="I9" t="n">
         <v>8.039999999999999</v>
       </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>300.77</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -753,6 +840,15 @@
       <c r="I10" t="n">
         <v>254.46</v>
       </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1603.18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42.91</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -784,6 +880,15 @@
       <c r="I11" t="n">
         <v>321.16</v>
       </c>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1967.23</v>
+      </c>
+      <c r="L11" t="n">
+        <v>57.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -815,6 +920,15 @@
       <c r="I12" t="n">
         <v>1.17</v>
       </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>347.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -846,6 +960,15 @@
       <c r="I13" t="n">
         <v>317.81</v>
       </c>
+      <c r="J13" t="n">
+        <v>18</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1944.42</v>
+      </c>
+      <c r="L13" t="n">
+        <v>59.97</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -877,6 +1000,15 @@
       <c r="I14" t="n">
         <v>376.13</v>
       </c>
+      <c r="J14" t="n">
+        <v>16</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1949.27</v>
+      </c>
+      <c r="L14" t="n">
+        <v>42.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -884,29 +1016,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>c108_21.txt</t>
+          <t>c109_21.txt</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>1652.35</v>
+        <v>1622.74</v>
       </c>
       <c r="F15" t="n">
-        <v>338.45</v>
+        <v>338.83</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1652.67</v>
+        <v>1464.69</v>
       </c>
       <c r="I15" t="n">
-        <v>399.35</v>
+        <v>407.08</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1800.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="16">
@@ -915,29 +1056,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>c109_21.txt</t>
+          <t>c201_21.txt</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>1622.74</v>
+        <v>1948.16</v>
       </c>
       <c r="F16" t="n">
-        <v>338.83</v>
+        <v>31.38</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>1464.69</v>
+        <v>1498.4</v>
       </c>
       <c r="I16" t="n">
-        <v>407.08</v>
+        <v>354.12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1749.92</v>
+      </c>
+      <c r="L16" t="n">
+        <v>74.86</v>
       </c>
     </row>
     <row r="17">
@@ -946,29 +1096,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>c201_21.txt</t>
+          <t>c202C10.txt</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1948.16</v>
+        <v>280.41</v>
       </c>
       <c r="F17" t="n">
-        <v>31.38</v>
+        <v>0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1498.4</v>
+        <v>280.41</v>
       </c>
       <c r="I17" t="n">
-        <v>354.12</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>280.41</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
@@ -977,29 +1136,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>c202C10.txt</t>
+          <t>c202C15.txt</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>280.41</v>
+        <v>676.28</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>280.41</v>
+        <v>595.58</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8100000000000001</v>
+        <v>6.53</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>676.28</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1008,29 +1176,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>c202C15.txt</t>
+          <t>c202_21.txt</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>676.28</v>
+        <v>1375.56</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2</v>
+        <v>313.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>595.58</v>
+        <v>1593.56</v>
       </c>
       <c r="I19" t="n">
-        <v>6.53</v>
+        <v>429.76</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2400.37</v>
+      </c>
+      <c r="L19" t="n">
+        <v>47.09</v>
       </c>
     </row>
     <row r="20">
@@ -1039,29 +1216,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c202_21.txt</t>
+          <t>c203_21.txt</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>1375.56</v>
+        <v>2339.57</v>
       </c>
       <c r="F20" t="n">
-        <v>313.04</v>
+        <v>37.18</v>
       </c>
       <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1532.64</v>
+      </c>
+      <c r="I20" t="n">
+        <v>383.78</v>
+      </c>
+      <c r="J20" t="n">
         <v>7</v>
       </c>
-      <c r="H20" t="n">
-        <v>1593.56</v>
-      </c>
-      <c r="I20" t="n">
-        <v>429.76</v>
+      <c r="K20" t="n">
+        <v>2181.13</v>
+      </c>
+      <c r="L20" t="n">
+        <v>58.94</v>
       </c>
     </row>
     <row r="21">
@@ -1070,29 +1256,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c203_21.txt</t>
+          <t>c204_21.txt</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>2339.57</v>
+        <v>1098.34</v>
       </c>
       <c r="F21" t="n">
-        <v>37.18</v>
+        <v>473.52</v>
       </c>
       <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1306.17</v>
+      </c>
+      <c r="I21" t="n">
+        <v>438.95</v>
+      </c>
+      <c r="J21" t="n">
         <v>6</v>
       </c>
-      <c r="H21" t="n">
-        <v>1532.64</v>
-      </c>
-      <c r="I21" t="n">
-        <v>383.78</v>
+      <c r="K21" t="n">
+        <v>1393.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16.09</v>
       </c>
     </row>
     <row r="22">
@@ -1101,29 +1296,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>c204_21.txt</t>
+          <t>c205C10.txt</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1098.34</v>
+        <v>333.18</v>
       </c>
       <c r="F22" t="n">
-        <v>473.52</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>1306.17</v>
+        <v>333.18</v>
       </c>
       <c r="I22" t="n">
-        <v>438.95</v>
+        <v>1.73</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>333.18</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="23">
@@ -1132,29 +1336,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>c205C10.txt</t>
+          <t>c205_21.txt</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>333.18</v>
+        <v>1266.32</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>244.1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>333.18</v>
+        <v>1424.64</v>
       </c>
       <c r="I23" t="n">
-        <v>1.73</v>
+        <v>250.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1674.92</v>
+      </c>
+      <c r="L23" t="n">
+        <v>49.69</v>
       </c>
     </row>
     <row r="24">
@@ -1163,29 +1376,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>c205_21.txt</t>
+          <t>c206C5.txt</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1266.32</v>
+        <v>254.13</v>
       </c>
       <c r="F24" t="n">
-        <v>244.1</v>
+        <v>0.16</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1424.64</v>
+        <v>254.13</v>
       </c>
       <c r="I24" t="n">
-        <v>250.7</v>
+        <v>0.39</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>254.13</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
@@ -1194,29 +1416,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>c206C5.txt</t>
+          <t>c206_21.txt</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>254.13</v>
+        <v>1317.93</v>
       </c>
       <c r="F25" t="n">
-        <v>0.16</v>
+        <v>461.72</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>254.13</v>
+        <v>1466.28</v>
       </c>
       <c r="I25" t="n">
-        <v>0.39</v>
+        <v>463.84</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1842.93</v>
+      </c>
+      <c r="L25" t="n">
+        <v>54.83</v>
       </c>
     </row>
     <row r="26">
@@ -1225,29 +1456,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>c206_21.txt</t>
+          <t>c207_21.txt</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1204.88</v>
+      </c>
+      <c r="F26" t="n">
+        <v>475.85</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1345.65</v>
+      </c>
+      <c r="I26" t="n">
+        <v>440.59</v>
+      </c>
+      <c r="J26" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="n">
-        <v>1317.93</v>
-      </c>
-      <c r="F26" t="n">
-        <v>461.72</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1466.28</v>
-      </c>
-      <c r="I26" t="n">
-        <v>463.84</v>
+      <c r="K26" t="n">
+        <v>1732.53</v>
+      </c>
+      <c r="L26" t="n">
+        <v>17.92</v>
       </c>
     </row>
     <row r="27">
@@ -1256,29 +1496,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>c207_21.txt</t>
+          <t>c208C15.txt</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1204.88</v>
+        <v>304.83</v>
       </c>
       <c r="F27" t="n">
-        <v>475.85</v>
+        <v>0.09</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>1345.65</v>
+        <v>300.55</v>
       </c>
       <c r="I27" t="n">
-        <v>440.59</v>
+        <v>6.37</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>304.83</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="28">
@@ -1287,29 +1536,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>c208C15.txt</t>
+          <t>c208C5.txt</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>304.83</v>
+        <v>201.35</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>300.55</v>
+        <v>201.35</v>
       </c>
       <c r="I28" t="n">
-        <v>6.37</v>
+        <v>0.34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>201.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="29">
@@ -1318,29 +1576,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>c208C5.txt</t>
+          <t>c208_21.txt</t>
         </is>
       </c>
       <c r="C29" t="n">
+        <v>100</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1264.07</v>
+      </c>
+      <c r="F29" t="n">
+        <v>433.82</v>
+      </c>
+      <c r="G29" t="n">
         <v>5</v>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>201.35</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
       <c r="H29" t="n">
-        <v>201.35</v>
+        <v>1586.67</v>
       </c>
       <c r="I29" t="n">
-        <v>0.34</v>
+        <v>209.38</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1770.37</v>
+      </c>
+      <c r="L29" t="n">
+        <v>28.7</v>
       </c>
     </row>
     <row r="30">
@@ -1349,29 +1616,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>c208_21.txt</t>
+          <t>r101_21.txt</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>1264.07</v>
+        <v>2312.35</v>
       </c>
       <c r="F30" t="n">
-        <v>433.82</v>
+        <v>28.44</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H30" t="n">
-        <v>1586.67</v>
+        <v>2299.91</v>
       </c>
       <c r="I30" t="n">
-        <v>209.38</v>
+        <v>475.01</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2344.37</v>
+      </c>
+      <c r="L30" t="n">
+        <v>55.34</v>
       </c>
     </row>
     <row r="31">
@@ -1380,29 +1656,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>r101_21.txt</t>
+          <t>r102C10.txt</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>2312.35</v>
+        <v>262.92</v>
       </c>
       <c r="F31" t="n">
-        <v>28.44</v>
+        <v>0.16</v>
       </c>
       <c r="G31" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>2299.91</v>
+        <v>262.92</v>
       </c>
       <c r="I31" t="n">
-        <v>475.01</v>
+        <v>1.01</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>262.92</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="32">
@@ -1411,29 +1696,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>r102C10.txt</t>
+          <t>r102C15.txt</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>262.92</v>
+        <v>439.22</v>
       </c>
       <c r="F32" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>262.92</v>
+        <v>439.22</v>
       </c>
       <c r="I32" t="n">
-        <v>1.01</v>
+        <v>7.07</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>439.91</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="33">
@@ -1442,29 +1736,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>r102C15.txt</t>
+          <t>r102_21.txt</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E33" t="n">
-        <v>439.22</v>
+        <v>2176.04</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14</v>
+        <v>40.24</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H33" t="n">
-        <v>439.22</v>
+        <v>2112.74</v>
       </c>
       <c r="I33" t="n">
-        <v>7.07</v>
+        <v>286.31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>26</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2345.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>60.86</v>
       </c>
     </row>
     <row r="34">
@@ -1473,29 +1776,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>r102_21.txt</t>
+          <t>r103C10.txt</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2176.04</v>
+        <v>211.52</v>
       </c>
       <c r="F34" t="n">
-        <v>40.24</v>
+        <v>0.16</v>
       </c>
       <c r="G34" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>2112.74</v>
+        <v>208.31</v>
       </c>
       <c r="I34" t="n">
-        <v>286.31</v>
+        <v>2.53</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>208.31</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="35">
@@ -1504,29 +1816,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>r103C10.txt</t>
+          <t>r103_21.txt</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>211.52</v>
+        <v>2101.97</v>
       </c>
       <c r="F35" t="n">
-        <v>0.16</v>
+        <v>32.55</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>208.31</v>
+        <v>1839.8</v>
       </c>
       <c r="I35" t="n">
-        <v>2.53</v>
+        <v>429.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>23</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2010.57</v>
+      </c>
+      <c r="L35" t="n">
+        <v>63.17</v>
       </c>
     </row>
     <row r="36">
@@ -1535,29 +1856,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>r103_21.txt</t>
+          <t>r104C5.txt</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>2101.97</v>
+        <v>137.01</v>
       </c>
       <c r="F36" t="n">
-        <v>32.55</v>
+        <v>0.05</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>1839.8</v>
+        <v>137.01</v>
       </c>
       <c r="I36" t="n">
-        <v>429.04</v>
+        <v>0.47</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>137.01</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="37">
@@ -1566,29 +1896,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>r104C5.txt</t>
+          <t>r104_21.txt</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>137.01</v>
+        <v>1567.11</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05</v>
+        <v>451.96</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>137.01</v>
+        <v>1584.5</v>
       </c>
       <c r="I37" t="n">
-        <v>0.47</v>
+        <v>373.23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>18</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1664.06</v>
+      </c>
+      <c r="L37" t="n">
+        <v>56.42</v>
       </c>
     </row>
     <row r="38">
@@ -1597,29 +1936,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>r104_21.txt</t>
+          <t>r105C15.txt</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>1567.11</v>
+        <v>358.27</v>
       </c>
       <c r="F38" t="n">
-        <v>451.96</v>
+        <v>0.27</v>
       </c>
       <c r="G38" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>1584.5</v>
+        <v>345.95</v>
       </c>
       <c r="I38" t="n">
-        <v>373.23</v>
+        <v>7.11</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.59</v>
       </c>
     </row>
     <row r="39">
@@ -1628,29 +1976,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>r105C15.txt</t>
+          <t>r105C5.txt</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>358.27</v>
+        <v>174.03</v>
       </c>
       <c r="F39" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>345.95</v>
+        <v>174.03</v>
       </c>
       <c r="I39" t="n">
-        <v>7.11</v>
+        <v>0.52</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>174.03</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="40">
@@ -1659,29 +2016,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>r105C5.txt</t>
+          <t>r105_21.txt</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E40" t="n">
-        <v>174.03</v>
+        <v>2284.49</v>
       </c>
       <c r="F40" t="n">
-        <v>0.19</v>
+        <v>41.46</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H40" t="n">
-        <v>174.03</v>
+        <v>2007.27</v>
       </c>
       <c r="I40" t="n">
-        <v>0.52</v>
+        <v>491.76</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2326.94</v>
+      </c>
+      <c r="L40" t="n">
+        <v>57.34</v>
       </c>
     </row>
     <row r="41">
@@ -1690,29 +2056,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>r105_21.txt</t>
+          <t>r106_21.txt</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" t="n">
-        <v>2284.49</v>
+        <v>1949.15</v>
       </c>
       <c r="F41" t="n">
-        <v>41.46</v>
+        <v>327.64</v>
       </c>
       <c r="G41" t="n">
         <v>21</v>
       </c>
       <c r="H41" t="n">
-        <v>2007.27</v>
+        <v>1868.41</v>
       </c>
       <c r="I41" t="n">
-        <v>491.76</v>
+        <v>414.97</v>
+      </c>
+      <c r="J41" t="n">
+        <v>23</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2037.25</v>
+      </c>
+      <c r="L41" t="n">
+        <v>59.08</v>
       </c>
     </row>
     <row r="42">
@@ -1721,29 +2096,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>r106_21.txt</t>
+          <t>r107_21.txt</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>1949.15</v>
+        <v>1743.52</v>
       </c>
       <c r="F42" t="n">
-        <v>327.64</v>
+        <v>403.92</v>
       </c>
       <c r="G42" t="n">
+        <v>18</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1672.04</v>
+      </c>
+      <c r="I42" t="n">
+        <v>428.14</v>
+      </c>
+      <c r="J42" t="n">
         <v>21</v>
       </c>
-      <c r="H42" t="n">
-        <v>1868.41</v>
-      </c>
-      <c r="I42" t="n">
-        <v>414.97</v>
+      <c r="K42" t="n">
+        <v>1923.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>21.19</v>
       </c>
     </row>
     <row r="43">
@@ -1752,29 +2136,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>r107_21.txt</t>
+          <t>r108_21.txt</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>1743.52</v>
+        <v>1539.11</v>
       </c>
       <c r="F43" t="n">
-        <v>403.92</v>
+        <v>471.51</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H43" t="n">
-        <v>1672.04</v>
+        <v>1473.13</v>
       </c>
       <c r="I43" t="n">
-        <v>428.14</v>
+        <v>456.83</v>
+      </c>
+      <c r="J43" t="n">
+        <v>17</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1635.52</v>
+      </c>
+      <c r="L43" t="n">
+        <v>35.53</v>
       </c>
     </row>
     <row r="44">
@@ -1783,29 +2176,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>r108_21.txt</t>
+          <t>r109_21.txt</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>1539.11</v>
+        <v>1744.31</v>
       </c>
       <c r="F44" t="n">
-        <v>471.51</v>
+        <v>388.07</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
-        <v>1473.13</v>
+        <v>1825.11</v>
       </c>
       <c r="I44" t="n">
-        <v>456.83</v>
+        <v>343.98</v>
+      </c>
+      <c r="J44" t="n">
+        <v>21</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2067.03</v>
+      </c>
+      <c r="L44" t="n">
+        <v>50.81</v>
       </c>
     </row>
     <row r="45">
@@ -1814,29 +2216,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>r109_21.txt</t>
+          <t>r110_21.txt</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>1744.31</v>
+        <v>1484.47</v>
       </c>
       <c r="F45" t="n">
-        <v>388.07</v>
+        <v>452.31</v>
       </c>
       <c r="G45" t="n">
+        <v>17</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1724.28</v>
+      </c>
+      <c r="I45" t="n">
+        <v>477.41</v>
+      </c>
+      <c r="J45" t="n">
         <v>19</v>
       </c>
-      <c r="H45" t="n">
-        <v>1825.11</v>
-      </c>
-      <c r="I45" t="n">
-        <v>343.98</v>
+      <c r="K45" t="n">
+        <v>1837.13</v>
+      </c>
+      <c r="L45" t="n">
+        <v>20.69</v>
       </c>
     </row>
     <row r="46">
@@ -1845,7 +2256,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>r110_21.txt</t>
+          <t>r111_21.txt</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1855,19 +2266,28 @@
         <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>1484.47</v>
+        <v>1581.37</v>
       </c>
       <c r="F46" t="n">
-        <v>452.31</v>
+        <v>399.14</v>
       </c>
       <c r="G46" t="n">
         <v>17</v>
       </c>
       <c r="H46" t="n">
-        <v>1724.28</v>
+        <v>1687.85</v>
       </c>
       <c r="I46" t="n">
-        <v>477.41</v>
+        <v>313.38</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1822.42</v>
+      </c>
+      <c r="L46" t="n">
+        <v>42.45</v>
       </c>
     </row>
     <row r="47">
@@ -1876,29 +2296,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>r111_21.txt</t>
+          <t>r112_21.txt</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
       <c r="D47" t="n">
+        <v>15</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1451.26</v>
+      </c>
+      <c r="F47" t="n">
+        <v>377.92</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1570.31</v>
+      </c>
+      <c r="I47" t="n">
+        <v>336.12</v>
+      </c>
+      <c r="J47" t="n">
         <v>17</v>
       </c>
-      <c r="E47" t="n">
-        <v>1581.37</v>
-      </c>
-      <c r="F47" t="n">
-        <v>399.14</v>
-      </c>
-      <c r="G47" t="n">
-        <v>17</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1687.85</v>
-      </c>
-      <c r="I47" t="n">
-        <v>313.38</v>
+      <c r="K47" t="n">
+        <v>1661.61</v>
+      </c>
+      <c r="L47" t="n">
+        <v>46.72</v>
       </c>
     </row>
     <row r="48">
@@ -1907,29 +2336,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>r112_21.txt</t>
+          <t>r201C10.txt</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>1451.26</v>
+        <v>272.46</v>
       </c>
       <c r="F48" t="n">
-        <v>377.92</v>
+        <v>0.11</v>
       </c>
       <c r="G48" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1570.31</v>
+        <v>228.36</v>
       </c>
       <c r="I48" t="n">
-        <v>336.12</v>
+        <v>4.34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>272.46</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="49">
@@ -1938,29 +2376,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>r201C10.txt</t>
+          <t>r201_21.txt</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>272.46</v>
+        <v>2653.85</v>
       </c>
       <c r="F49" t="n">
-        <v>0.11</v>
+        <v>15.97</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>228.36</v>
+        <v>2161.47</v>
       </c>
       <c r="I49" t="n">
-        <v>4.34</v>
+        <v>488.55</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2615.09</v>
+      </c>
+      <c r="L49" t="n">
+        <v>45.66</v>
       </c>
     </row>
     <row r="50">
@@ -1969,29 +2416,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>r201_21.txt</t>
+          <t>r202C15.txt</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>2653.85</v>
+        <v>436.62</v>
       </c>
       <c r="F50" t="n">
-        <v>15.97</v>
+        <v>4.56</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>2161.47</v>
+        <v>436.62</v>
       </c>
       <c r="I50" t="n">
-        <v>488.55</v>
+        <v>9.050000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>464.89</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="51">
@@ -2000,29 +2456,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>r202C15.txt</t>
+          <t>r202C5.txt</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>436.62</v>
+        <v>144.67</v>
       </c>
       <c r="F51" t="n">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>436.62</v>
+        <v>144.67</v>
       </c>
       <c r="I51" t="n">
-        <v>9.050000000000001</v>
+        <v>0.23</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>144.67</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="52">
@@ -2031,29 +2496,38 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>r202C5.txt</t>
+          <t>r202_21.txt</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>144.67</v>
+        <v>2408.43</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>33.47</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>144.67</v>
+        <v>1770.36</v>
       </c>
       <c r="I52" t="n">
-        <v>0.23</v>
+        <v>450.62</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2186.57</v>
+      </c>
+      <c r="L52" t="n">
+        <v>30.88</v>
       </c>
     </row>
     <row r="53">
@@ -2062,29 +2536,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>r202_21.txt</t>
+          <t>r203C10.txt</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>2408.43</v>
+        <v>235.95</v>
       </c>
       <c r="F53" t="n">
-        <v>33.47</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1770.36</v>
+        <v>235.95</v>
       </c>
       <c r="I53" t="n">
-        <v>450.62</v>
+        <v>0.47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>235.95</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="54">
@@ -2093,29 +2576,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>r203C10.txt</t>
+          <t>r203C5.txt</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>235.95</v>
+        <v>241.42</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>235.95</v>
+        <v>241.42</v>
       </c>
       <c r="I54" t="n">
-        <v>0.47</v>
+        <v>0.12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>241.42</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
@@ -2124,29 +2616,38 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>r203C5.txt</t>
+          <t>r203_21.txt</t>
         </is>
       </c>
       <c r="C55" t="n">
+        <v>100</v>
+      </c>
+      <c r="D55" t="n">
         <v>5</v>
       </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
       <c r="E55" t="n">
-        <v>241.42</v>
+        <v>2095.19</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09</v>
+        <v>34.64</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>241.42</v>
+        <v>1507.61</v>
       </c>
       <c r="I55" t="n">
-        <v>0.12</v>
+        <v>461.03</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2171.81</v>
+      </c>
+      <c r="L55" t="n">
+        <v>41.91</v>
       </c>
     </row>
     <row r="56">
@@ -2155,29 +2656,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>r203_21.txt</t>
+          <t>r204_21.txt</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>100</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>2095.19</v>
+        <v>1157.26</v>
       </c>
       <c r="F56" t="n">
-        <v>34.64</v>
+        <v>214.59</v>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>1507.61</v>
+        <v>1116.39</v>
       </c>
       <c r="I56" t="n">
-        <v>461.03</v>
+        <v>240.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1411.69</v>
+      </c>
+      <c r="L56" t="n">
+        <v>65.34</v>
       </c>
     </row>
     <row r="57">
@@ -2186,29 +2696,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>r204_21.txt</t>
+          <t>r205_21.txt</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>1157.26</v>
+        <v>2454.1</v>
       </c>
       <c r="F57" t="n">
-        <v>214.59</v>
+        <v>16.67</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>1116.39</v>
+        <v>2002.82</v>
       </c>
       <c r="I57" t="n">
-        <v>240.7</v>
+        <v>345.47</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2566.95</v>
+      </c>
+      <c r="L57" t="n">
+        <v>36.59</v>
       </c>
     </row>
     <row r="58">
@@ -2217,7 +2736,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>r205_21.txt</t>
+          <t>r206_21.txt</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2227,19 +2746,28 @@
         <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>2454.1</v>
+        <v>2322.38</v>
       </c>
       <c r="F58" t="n">
-        <v>16.67</v>
+        <v>16.06</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>2002.82</v>
+        <v>1701.86</v>
       </c>
       <c r="I58" t="n">
-        <v>345.47</v>
+        <v>453.47</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2024.09</v>
+      </c>
+      <c r="L58" t="n">
+        <v>25.53</v>
       </c>
     </row>
     <row r="59">
@@ -2248,7 +2776,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>r206_21.txt</t>
+          <t>r207_21.txt</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2258,19 +2786,28 @@
         <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>2322.38</v>
+        <v>1164.68</v>
       </c>
       <c r="F59" t="n">
-        <v>16.06</v>
+        <v>458.71</v>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>1701.86</v>
+        <v>1415.15</v>
       </c>
       <c r="I59" t="n">
-        <v>453.47</v>
+        <v>225.86</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2090.41</v>
+      </c>
+      <c r="L59" t="n">
+        <v>43.62</v>
       </c>
     </row>
     <row r="60">
@@ -2279,29 +2816,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>r207_21.txt</t>
+          <t>r208_21.txt</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>1164.68</v>
+        <v>1052.78</v>
       </c>
       <c r="F60" t="n">
-        <v>458.71</v>
+        <v>459.81</v>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1241.34</v>
+      </c>
+      <c r="I60" t="n">
+        <v>331.02</v>
+      </c>
+      <c r="J60" t="n">
         <v>4</v>
       </c>
-      <c r="H60" t="n">
-        <v>1415.15</v>
-      </c>
-      <c r="I60" t="n">
-        <v>225.86</v>
+      <c r="K60" t="n">
+        <v>1381.65</v>
+      </c>
+      <c r="L60" t="n">
+        <v>56.56</v>
       </c>
     </row>
     <row r="61">
@@ -2310,29 +2856,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>r208_21.txt</t>
+          <t>r209C15.txt</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1052.78</v>
+        <v>482.87</v>
       </c>
       <c r="F61" t="n">
-        <v>459.81</v>
+        <v>1.72</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1241.34</v>
+        <v>482.87</v>
       </c>
       <c r="I61" t="n">
-        <v>331.02</v>
+        <v>2.14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>482.87</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="62">
@@ -2341,29 +2896,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>r209C15.txt</t>
+          <t>r209_21.txt</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>482.87</v>
+        <v>1191.7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.72</v>
+        <v>445.96</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>482.87</v>
+        <v>1637.56</v>
       </c>
       <c r="I62" t="n">
-        <v>2.14</v>
+        <v>401.48</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1965.54</v>
+      </c>
+      <c r="L62" t="n">
+        <v>22.31</v>
       </c>
     </row>
     <row r="63">
@@ -2372,7 +2936,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>r209_21.txt</t>
+          <t>r210_21.txt</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2382,19 +2946,28 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>1191.7</v>
+        <v>1371.39</v>
       </c>
       <c r="F63" t="n">
-        <v>445.96</v>
+        <v>425.35</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>1637.56</v>
+        <v>1440</v>
       </c>
       <c r="I63" t="n">
-        <v>401.48</v>
+        <v>438.28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1994.55</v>
+      </c>
+      <c r="L63" t="n">
+        <v>39.77</v>
       </c>
     </row>
     <row r="64">
@@ -2403,29 +2976,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>r210_21.txt</t>
+          <t>r211_21.txt</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>1371.39</v>
+        <v>1136.34</v>
       </c>
       <c r="F64" t="n">
-        <v>425.35</v>
+        <v>251.66</v>
       </c>
       <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1408.72</v>
+      </c>
+      <c r="I64" t="n">
+        <v>482.75</v>
+      </c>
+      <c r="J64" t="n">
         <v>4</v>
       </c>
-      <c r="H64" t="n">
-        <v>1440</v>
-      </c>
-      <c r="I64" t="n">
-        <v>438.28</v>
+      <c r="K64" t="n">
+        <v>1579.51</v>
+      </c>
+      <c r="L64" t="n">
+        <v>61.27</v>
       </c>
     </row>
     <row r="65">
@@ -2434,29 +3016,38 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>r211_21.txt</t>
+          <t>rc101_21.txt</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E65" t="n">
-        <v>1136.34</v>
+        <v>2428.2</v>
       </c>
       <c r="F65" t="n">
-        <v>251.66</v>
+        <v>241.17</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H65" t="n">
-        <v>1408.72</v>
+        <v>2386.28</v>
       </c>
       <c r="I65" t="n">
-        <v>482.75</v>
+        <v>339.78</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2708.23</v>
+      </c>
+      <c r="L65" t="n">
+        <v>45.77</v>
       </c>
     </row>
     <row r="66">
@@ -2465,29 +3056,38 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rc101_21.txt</t>
+          <t>rc102C10.txt</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>2428.2</v>
+        <v>436.05</v>
       </c>
       <c r="F66" t="n">
-        <v>241.17</v>
+        <v>0.7</v>
       </c>
       <c r="G66" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>2386.28</v>
+        <v>436.05</v>
       </c>
       <c r="I66" t="n">
-        <v>339.78</v>
+        <v>0.78</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>436.05</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="67">
@@ -2496,29 +3096,38 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rc102C10.txt</t>
+          <t>rc102_21.txt</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E67" t="n">
-        <v>436.05</v>
+        <v>2219.8</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7</v>
+        <v>478.02</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H67" t="n">
-        <v>436.05</v>
+        <v>2262.85</v>
       </c>
       <c r="I67" t="n">
-        <v>0.78</v>
+        <v>406.08</v>
+      </c>
+      <c r="J67" t="n">
+        <v>22</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2577.65</v>
+      </c>
+      <c r="L67" t="n">
+        <v>66.02</v>
       </c>
     </row>
     <row r="68">
@@ -2527,29 +3136,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rc102_21.txt</t>
+          <t>rc103C15.txt</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>2219.8</v>
+        <v>432.11</v>
       </c>
       <c r="F68" t="n">
-        <v>478.02</v>
+        <v>1.44</v>
       </c>
       <c r="G68" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>2262.85</v>
+        <v>432.11</v>
       </c>
       <c r="I68" t="n">
-        <v>406.08</v>
+        <v>1.98</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>432.11</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="69">
@@ -2558,29 +3176,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rc103C15.txt</t>
+          <t>rc103_21.txt</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E69" t="n">
-        <v>432.11</v>
+        <v>1880.6</v>
       </c>
       <c r="F69" t="n">
-        <v>1.44</v>
+        <v>435.95</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H69" t="n">
-        <v>432.11</v>
+        <v>1990.97</v>
       </c>
       <c r="I69" t="n">
-        <v>1.98</v>
+        <v>410.7</v>
+      </c>
+      <c r="J69" t="n">
+        <v>20</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2190.56</v>
+      </c>
+      <c r="L69" t="n">
+        <v>21.75</v>
       </c>
     </row>
     <row r="70">
@@ -2589,29 +3216,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rc103_21.txt</t>
+          <t>rc104_21.txt</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>1880.6</v>
+        <v>1697.2</v>
       </c>
       <c r="F70" t="n">
-        <v>435.95</v>
+        <v>415.01</v>
       </c>
       <c r="G70" t="n">
+        <v>15</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1762.68</v>
+      </c>
+      <c r="I70" t="n">
+        <v>446.52</v>
+      </c>
+      <c r="J70" t="n">
         <v>17</v>
       </c>
-      <c r="H70" t="n">
-        <v>1990.97</v>
-      </c>
-      <c r="I70" t="n">
-        <v>410.7</v>
+      <c r="K70" t="n">
+        <v>1888.57</v>
+      </c>
+      <c r="L70" t="n">
+        <v>20.31</v>
       </c>
     </row>
     <row r="71">
@@ -2620,29 +3256,38 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rc104_21.txt</t>
+          <t>rc105C5.txt</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>1697.2</v>
+        <v>239.46</v>
       </c>
       <c r="F71" t="n">
-        <v>415.01</v>
+        <v>0.14</v>
       </c>
       <c r="G71" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>1762.68</v>
+        <v>239.46</v>
       </c>
       <c r="I71" t="n">
-        <v>446.52</v>
+        <v>0.3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>239.46</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="72">
@@ -2651,29 +3296,38 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rc105C5.txt</t>
+          <t>rc105_21.txt</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E72" t="n">
-        <v>239.46</v>
+        <v>2207.55</v>
       </c>
       <c r="F72" t="n">
-        <v>0.14</v>
+        <v>149.23</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H72" t="n">
-        <v>239.46</v>
+        <v>2134.47</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3</v>
+        <v>413.09</v>
+      </c>
+      <c r="J72" t="n">
+        <v>23</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2428.2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>34.11</v>
       </c>
     </row>
     <row r="73">
@@ -2682,29 +3336,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rc105_21.txt</t>
+          <t>rc106_21.txt</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>100</v>
       </c>
       <c r="D73" t="n">
+        <v>19</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2086.42</v>
+      </c>
+      <c r="F73" t="n">
+        <v>354.93</v>
+      </c>
+      <c r="G73" t="n">
+        <v>19</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2124.89</v>
+      </c>
+      <c r="I73" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="J73" t="n">
         <v>21</v>
       </c>
-      <c r="E73" t="n">
-        <v>2207.55</v>
-      </c>
-      <c r="F73" t="n">
-        <v>149.23</v>
-      </c>
-      <c r="G73" t="n">
-        <v>21</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2134.47</v>
-      </c>
-      <c r="I73" t="n">
-        <v>413.09</v>
+      <c r="K73" t="n">
+        <v>2387.6</v>
+      </c>
+      <c r="L73" t="n">
+        <v>47.73</v>
       </c>
     </row>
     <row r="74">
@@ -2713,29 +3376,38 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>rc106_21.txt</t>
+          <t>rc107_21.txt</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>100</v>
       </c>
       <c r="D74" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1881.63</v>
+      </c>
+      <c r="F74" t="n">
+        <v>363.36</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1834.27</v>
+      </c>
+      <c r="I74" t="n">
+        <v>299.06</v>
+      </c>
+      <c r="J74" t="n">
         <v>19</v>
       </c>
-      <c r="E74" t="n">
-        <v>2086.42</v>
-      </c>
-      <c r="F74" t="n">
-        <v>354.93</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2124.89</v>
-      </c>
-      <c r="I74" t="n">
-        <v>380.05</v>
+      <c r="K74" t="n">
+        <v>2233.03</v>
+      </c>
+      <c r="L74" t="n">
+        <v>60.84</v>
       </c>
     </row>
     <row r="75">
@@ -2744,29 +3416,38 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rc107_21.txt</t>
+          <t>rc108C10.txt</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>1881.63</v>
+        <v>359.2</v>
       </c>
       <c r="F75" t="n">
-        <v>363.36</v>
+        <v>1.43</v>
       </c>
       <c r="G75" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>1834.27</v>
+        <v>359.2</v>
       </c>
       <c r="I75" t="n">
-        <v>299.06</v>
+        <v>2.16</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="76">
@@ -2775,29 +3456,38 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rc108C10.txt</t>
+          <t>rc108C15.txt</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>359.2</v>
+        <v>426.56</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>359.2</v>
+        <v>426.56</v>
       </c>
       <c r="I76" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>426.56</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="77">
@@ -2806,29 +3496,38 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>rc108C15.txt</t>
+          <t>rc108C5.txt</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>426.56</v>
+        <v>274.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1.66</v>
+        <v>0.27</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
-        <v>426.56</v>
+        <v>274.1</v>
       </c>
       <c r="I77" t="n">
-        <v>1.97</v>
+        <v>0.3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>274.1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="78">
@@ -2837,29 +3536,38 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rc108C5.txt</t>
+          <t>rc108_21.txt</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>274.1</v>
+        <v>1621.43</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27</v>
+        <v>434.76</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H78" t="n">
-        <v>274.1</v>
+        <v>1886.4</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3</v>
+        <v>304.59</v>
+      </c>
+      <c r="J78" t="n">
+        <v>17</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1992.3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>20.22</v>
       </c>
     </row>
     <row r="79">
@@ -2868,29 +3576,38 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rc108_21.txt</t>
+          <t>rc201C10.txt</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>1621.43</v>
+        <v>415.89</v>
       </c>
       <c r="F79" t="n">
-        <v>434.76</v>
+        <v>0.65</v>
       </c>
       <c r="G79" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>1886.4</v>
+        <v>402.12</v>
       </c>
       <c r="I79" t="n">
-        <v>304.59</v>
+        <v>3.44</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>415.89</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="80">
@@ -2899,29 +3616,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rc201C10.txt</t>
+          <t>rc201_21.txt</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>415.89</v>
+        <v>3388.55</v>
       </c>
       <c r="F80" t="n">
-        <v>0.65</v>
+        <v>19.72</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H80" t="n">
-        <v>402.12</v>
+        <v>3175.49</v>
       </c>
       <c r="I80" t="n">
-        <v>3.44</v>
+        <v>222.33</v>
+      </c>
+      <c r="J80" t="n">
+        <v>7</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3271.65</v>
+      </c>
+      <c r="L80" t="n">
+        <v>35.06</v>
       </c>
     </row>
     <row r="81">
@@ -2930,29 +3656,38 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rc201_21.txt</t>
+          <t>rc202C15.txt</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>3388.55</v>
+        <v>481.82</v>
       </c>
       <c r="F81" t="n">
-        <v>19.72</v>
+        <v>3.74</v>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3175.49</v>
+        <v>474.01</v>
       </c>
       <c r="I81" t="n">
-        <v>222.33</v>
+        <v>7.42</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>484.72</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="82">
@@ -2961,29 +3696,38 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rc202C15.txt</t>
+          <t>rc202_21.txt</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>481.82</v>
+        <v>2879.14</v>
       </c>
       <c r="F82" t="n">
-        <v>3.74</v>
+        <v>35.15</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H82" t="n">
-        <v>474.01</v>
+        <v>2652.36</v>
       </c>
       <c r="I82" t="n">
-        <v>7.42</v>
+        <v>46.91</v>
+      </c>
+      <c r="J82" t="n">
+        <v>7</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2652.36</v>
+      </c>
+      <c r="L82" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="83">
@@ -2992,29 +3736,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>rc202_21.txt</t>
+          <t>rc203_21.txt</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>100</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>2879.14</v>
+        <v>2296.07</v>
       </c>
       <c r="F83" t="n">
-        <v>35.15</v>
+        <v>17.64</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>2652.36</v>
+        <v>1713.83</v>
       </c>
       <c r="I83" t="n">
-        <v>46.91</v>
+        <v>447.72</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2425.09</v>
+      </c>
+      <c r="L83" t="n">
+        <v>56.28</v>
       </c>
     </row>
     <row r="84">
@@ -3023,29 +3776,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rc203_21.txt</t>
+          <t>rc204C15.txt</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>2296.07</v>
+        <v>401.91</v>
       </c>
       <c r="F84" t="n">
-        <v>17.64</v>
+        <v>1.37</v>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
-        <v>1713.83</v>
+        <v>401.91</v>
       </c>
       <c r="I84" t="n">
-        <v>447.72</v>
+        <v>1.55</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>401.91</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="85">
@@ -3054,29 +3816,38 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rc204C15.txt</t>
+          <t>rc204C5.txt</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>401.91</v>
+        <v>257.38</v>
       </c>
       <c r="F85" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>401.91</v>
+        <v>257.38</v>
       </c>
       <c r="I85" t="n">
-        <v>1.55</v>
+        <v>0.27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>257.38</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="86">
@@ -3085,29 +3856,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rc204C5.txt</t>
+          <t>rc204_21.txt</t>
         </is>
       </c>
       <c r="C86" t="n">
+        <v>100</v>
+      </c>
+      <c r="D86" t="n">
         <v>5</v>
       </c>
-      <c r="D86" t="n">
-        <v>2</v>
-      </c>
       <c r="E86" t="n">
-        <v>257.38</v>
+        <v>1390.7</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>473.06</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>257.38</v>
+        <v>1403.75</v>
       </c>
       <c r="I86" t="n">
-        <v>0.27</v>
+        <v>207.14</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1608.28</v>
+      </c>
+      <c r="L86" t="n">
+        <v>53.47</v>
       </c>
     </row>
     <row r="87">
@@ -3116,29 +3896,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rc204_21.txt</t>
+          <t>rc205C10.txt</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>1390.7</v>
+        <v>406.15</v>
       </c>
       <c r="F87" t="n">
-        <v>473.06</v>
+        <v>1.12</v>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>1403.75</v>
+        <v>406.15</v>
       </c>
       <c r="I87" t="n">
-        <v>207.14</v>
+        <v>1.36</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>406.15</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="88">
@@ -3147,29 +3936,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>rc205C10.txt</t>
+          <t>rc205_21.txt</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>406.15</v>
+        <v>1761.08</v>
       </c>
       <c r="F88" t="n">
-        <v>1.12</v>
+        <v>400.8</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>406.15</v>
+        <v>2021.33</v>
       </c>
       <c r="I88" t="n">
-        <v>1.36</v>
+        <v>475.92</v>
+      </c>
+      <c r="J88" t="n">
+        <v>7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2795.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>28.05</v>
       </c>
     </row>
     <row r="89">
@@ -3178,29 +3976,38 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rc205_21.txt</t>
+          <t>rc206_21.txt</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>1761.08</v>
+        <v>1645.91</v>
       </c>
       <c r="F89" t="n">
-        <v>400.8</v>
+        <v>226.83</v>
       </c>
       <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2041.81</v>
+      </c>
+      <c r="I89" t="n">
+        <v>453.86</v>
+      </c>
+      <c r="J89" t="n">
         <v>6</v>
       </c>
-      <c r="H89" t="n">
-        <v>2021.33</v>
-      </c>
-      <c r="I89" t="n">
-        <v>475.92</v>
+      <c r="K89" t="n">
+        <v>3111.12</v>
+      </c>
+      <c r="L89" t="n">
+        <v>28.97</v>
       </c>
     </row>
     <row r="90">
@@ -3209,29 +4016,38 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rc206_21.txt</t>
+          <t>rc207_21.txt</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>1645.91</v>
+        <v>1380.07</v>
       </c>
       <c r="F90" t="n">
-        <v>226.83</v>
+        <v>452.73</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
       </c>
       <c r="H90" t="n">
-        <v>2041.81</v>
+        <v>1570.41</v>
       </c>
       <c r="I90" t="n">
-        <v>453.86</v>
+        <v>456.08</v>
+      </c>
+      <c r="J90" t="n">
+        <v>6</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1963.07</v>
+      </c>
+      <c r="L90" t="n">
+        <v>14.53</v>
       </c>
     </row>
     <row r="91">
@@ -3240,29 +4056,38 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rc207_21.txt</t>
+          <t>rc208C5.txt</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1380.07</v>
+        <v>174.38</v>
       </c>
       <c r="F91" t="n">
-        <v>452.73</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1570.41</v>
+        <v>174.38</v>
       </c>
       <c r="I91" t="n">
-        <v>456.08</v>
+        <v>0.33</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>174.38</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="92">
@@ -3271,60 +4096,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rc208C5.txt</t>
+          <t>rc208_21.txt</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>174.38</v>
+        <v>1357.16</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>119.81</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" t="n">
-        <v>174.38</v>
+        <v>1332.87</v>
       </c>
       <c r="I92" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>rc208_21.txt</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>100</v>
-      </c>
-      <c r="D93" t="n">
+        <v>423.02</v>
+      </c>
+      <c r="J92" t="n">
         <v>4</v>
       </c>
-      <c r="E93" t="n">
-        <v>1357.16</v>
-      </c>
-      <c r="F93" t="n">
-        <v>119.81</v>
-      </c>
-      <c r="G93" t="n">
-        <v>4</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1332.87</v>
-      </c>
-      <c r="I93" t="n">
-        <v>423.02</v>
+      <c r="K92" t="n">
+        <v>1364.69</v>
+      </c>
+      <c r="L92" t="n">
+        <v>27.53</v>
       </c>
     </row>
   </sheetData>
